--- a/biology/Zoologie/Coccotrypes_dactyliperda/Coccotrypes_dactyliperda.xlsx
+++ b/biology/Zoologie/Coccotrypes_dactyliperda/Coccotrypes_dactyliperda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coccotrypes dactyliperda est une espèce d'insectes coléoptères de la famille des Curculionoidea répandue dans les régions tropicales et subtropicales.
-Ce minuscule charançon parasite les noyaux de dattes, l'ivoire végétal (même les boutons fabriqués dans cette matière) et divers autres fruits, tels l'amande douce, la noix de bétel, la noix de muscade, ainsi que l'écorce de cannelle[1].
+Ce minuscule charançon parasite les noyaux de dattes, l'ivoire végétal (même les boutons fabriqués dans cette matière) et divers autres fruits, tels l'amande douce, la noix de bétel, la noix de muscade, ainsi que l'écorce de cannelle.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon PaDil[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon PaDil :
 Coccotrypes anonae  Hopkins, 1915
 Coccotrypes bakeri  Hopkins, 1915
 Coccotrypes canariensis  Eggers, 1928
